--- a/validations/flangesegments.PolynomialLFlangeSegment/BnB_ReferenceFlange-Results-Tilt-1deg.xlsx
+++ b/validations/flangesegments.PolynomialLFlangeSegment/BnB_ReferenceFlange-Results-Tilt-1deg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\validations\flangesegments.PolynomialLFlangeSegment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2C504E-0EB4-4BB4-9B11-594CB204F12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061A7434-0B59-4020-944A-EF38B9FC69DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="17520" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -5524,13 +5524,34 @@
     <xf numFmtId="172" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5541,27 +5562,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="72">
@@ -19759,7 +19759,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="36576" rIns="45720" bIns="36576" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -20126,9 +20126,9 @@
   </sheetPr>
   <dimension ref="A1:DJ180"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J152" sqref="J152"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K116" sqref="K116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -20214,12 +20214,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="160"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -20227,12 +20227,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="160"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -20240,12 +20240,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="169"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="160"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -20253,12 +20253,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="160"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -20266,12 +20266,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="160"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -20319,112 +20319,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="159" t="s">
+      <c r="C13" s="161"/>
+      <c r="D13" s="163" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="159" t="s">
+      <c r="C14" s="161"/>
+      <c r="D14" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="159" t="s">
+      <c r="C15" s="161"/>
+      <c r="D15" s="163" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="159" t="str">
+      <c r="C16" s="161"/>
+      <c r="D16" s="163" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="158">
+      <c r="C17" s="161"/>
+      <c r="D17" s="167">
         <v>0.6</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="170">
+      <c r="C18" s="161"/>
+      <c r="D18" s="162">
         <v>45459</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20612,16 +20612,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="170"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -24584,6 +24584,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B18:C18"/>
@@ -24594,16 +24600,10 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="between">
@@ -24643,7 +24643,7 @@
   <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
@@ -24730,12 +24730,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="160"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24743,12 +24743,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="160"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24756,12 +24756,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="169"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="160"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24769,12 +24769,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="160"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24782,12 +24782,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="160"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24835,117 +24835,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="159" t="str">
+      <c r="C13" s="161"/>
+      <c r="D13" s="163" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="159" t="str">
+      <c r="C14" s="161"/>
+      <c r="D14" s="163" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="159" t="str">
+      <c r="C15" s="161"/>
+      <c r="D15" s="163" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="159" t="str">
+      <c r="C16" s="161"/>
+      <c r="D16" s="163" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="159">
+      <c r="C17" s="161"/>
+      <c r="D17" s="163">
         <f>Gap30deg!D17</f>
         <v>0.6</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="170">
+      <c r="C18" s="161"/>
+      <c r="D18" s="162">
         <f>Gap30deg!D18</f>
         <v>45459</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -25133,16 +25133,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="170"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -29068,6 +29068,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -29081,13 +29088,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="between">
@@ -29127,7 +29127,7 @@
   <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="P90" sqref="P90"/>
     </sheetView>
   </sheetViews>
@@ -29214,12 +29214,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="160"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -29227,12 +29227,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="160"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -29240,12 +29240,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="169"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="160"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -29253,12 +29253,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="160"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -29266,12 +29266,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="160"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -29319,117 +29319,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="159" t="str">
+      <c r="C13" s="161"/>
+      <c r="D13" s="163" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="159" t="str">
+      <c r="C14" s="161"/>
+      <c r="D14" s="163" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="159" t="str">
+      <c r="C15" s="161"/>
+      <c r="D15" s="163" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="159" t="str">
+      <c r="C16" s="161"/>
+      <c r="D16" s="163" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="159">
+      <c r="C17" s="161"/>
+      <c r="D17" s="163">
         <f>Gap30deg!D17</f>
         <v>0.6</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="170">
+      <c r="C18" s="161"/>
+      <c r="D18" s="162">
         <f>Gap30deg!D18</f>
         <v>45459</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29617,16 +29617,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="170"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -33552,6 +33552,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -33565,13 +33572,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="between">
@@ -33611,7 +33611,7 @@
   <dimension ref="A1:DJ180"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
@@ -33698,12 +33698,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="160"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33711,12 +33711,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="159"/>
+      <c r="D6" s="159"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="160"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33724,12 +33724,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="169"/>
+      <c r="B7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="160"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33737,12 +33737,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="169"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="160"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33750,12 +33750,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="169"/>
+      <c r="B9" s="158"/>
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="160"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33803,117 +33803,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="160" t="s">
+      <c r="B13" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="160"/>
-      <c r="D13" s="159" t="str">
+      <c r="C13" s="161"/>
+      <c r="D13" s="163" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="163"/>
+      <c r="J13" s="163"/>
+      <c r="K13" s="163"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="160"/>
-      <c r="D14" s="159" t="str">
+      <c r="C14" s="161"/>
+      <c r="D14" s="163" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="163"/>
+      <c r="J14" s="163"/>
+      <c r="K14" s="163"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="160" t="s">
+      <c r="B15" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="160"/>
-      <c r="D15" s="159" t="str">
+      <c r="C15" s="161"/>
+      <c r="D15" s="163" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="160" t="s">
+      <c r="B16" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="160"/>
-      <c r="D16" s="159" t="str">
+      <c r="C16" s="161"/>
+      <c r="D16" s="163" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="160" t="s">
+      <c r="B17" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="160"/>
-      <c r="D17" s="159">
+      <c r="C17" s="161"/>
+      <c r="D17" s="163">
         <f>Gap30deg!D17</f>
         <v>0.6</v>
       </c>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="160"/>
-      <c r="D18" s="170">
+      <c r="C18" s="161"/>
+      <c r="D18" s="162">
         <f>Gap30deg!D18</f>
         <v>45459</v>
       </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="162"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -34101,16 +34101,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="161"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="162"/>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="169"/>
+      <c r="D28" s="169"/>
+      <c r="E28" s="169"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="169"/>
+      <c r="K28" s="170"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -38036,6 +38036,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -38049,13 +38056,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="between">
@@ -38092,7 +38092,7 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:R135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
@@ -43060,12 +43060,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43322,17 +43321,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -43357,18 +43366,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/validations/flangesegments.PolynomialLFlangeSegment/BnB_ReferenceFlange-Results-Tilt-1deg.xlsx
+++ b/validations/flangesegments.PolynomialLFlangeSegment/BnB_ReferenceFlange-Results-Tilt-1deg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcelloB\mdb\!Progetti\!KCI\!SP2200052 - Bolt &amp; Beautiful\!pyflange-package\validations\flangesegments.PolynomialLFlangeSegment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061A7434-0B59-4020-944A-EF38B9FC69DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35E4037-7A1A-4BD1-B688-9B7AA48366C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="15" windowWidth="29040" windowHeight="17520" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
+    <workbookView xWindow="-28920" yWindow="-9165" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{710C990D-69B5-462C-923E-A1886280CCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Gap30deg" sheetId="2" r:id="rId1"/>
@@ -5524,6 +5524,24 @@
     <xf numFmtId="172" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5542,26 +5560,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="72">
@@ -19759,7 +19759,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="45720" tIns="36576" rIns="45720" bIns="36576" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -20126,9 +20126,9 @@
   </sheetPr>
   <dimension ref="A1:DJ180"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K116" sqref="K116"/>
+      <selection pane="bottomLeft" activeCell="N117" sqref="N117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.100000000000001" customHeight="1" outlineLevelRow="1"/>
@@ -20173,32 +20173,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="47" t="s">
         <v>13</v>
       </c>
@@ -20214,12 +20214,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -20227,12 +20227,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="160"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="166"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -20240,12 +20240,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="160"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="166"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -20253,12 +20253,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="166"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -20266,12 +20266,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="160"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -20319,112 +20319,112 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="163" t="s">
+      <c r="C13" s="167"/>
+      <c r="D13" s="169" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="163" t="s">
+      <c r="C14" s="167"/>
+      <c r="D14" s="169" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="163" t="s">
+      <c r="C15" s="167"/>
+      <c r="D15" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="163" t="str">
+      <c r="C16" s="167"/>
+      <c r="D16" s="169" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 30° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="167">
+      <c r="C17" s="167"/>
+      <c r="D17" s="170">
         <v>0.6</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162">
+      <c r="C18" s="167"/>
+      <c r="D18" s="168">
         <v>45459</v>
       </c>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -20612,16 +20612,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="170"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="160"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -24584,6 +24584,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B28:K28"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="B4:G4"/>
@@ -24600,10 +24604,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="between">
@@ -24689,32 +24689,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="47" t="s">
         <v>13</v>
       </c>
@@ -24730,12 +24730,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -24743,12 +24743,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="160"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="166"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -24756,12 +24756,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="160"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="166"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -24769,12 +24769,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="166"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -24782,12 +24782,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="160"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -24835,117 +24835,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="163" t="str">
+      <c r="C13" s="167"/>
+      <c r="D13" s="169" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="163" t="str">
+      <c r="C14" s="167"/>
+      <c r="D14" s="169" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="163" t="str">
+      <c r="C15" s="167"/>
+      <c r="D15" s="169" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="163" t="str">
+      <c r="C16" s="167"/>
+      <c r="D16" s="169" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 60° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="163">
+      <c r="C17" s="167"/>
+      <c r="D17" s="169">
         <f>Gap30deg!D17</f>
         <v>0.6</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162">
+      <c r="C18" s="167"/>
+      <c r="D18" s="168">
         <f>Gap30deg!D18</f>
         <v>45459</v>
       </c>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -25133,16 +25133,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="170"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="160"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -29068,13 +29068,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -29088,6 +29081,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="between">
@@ -29173,32 +29173,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="47" t="s">
         <v>13</v>
       </c>
@@ -29214,12 +29214,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -29227,12 +29227,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="160"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="166"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -29240,12 +29240,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="160"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="166"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -29253,12 +29253,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="166"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -29266,12 +29266,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="160"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -29319,117 +29319,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="163" t="str">
+      <c r="C13" s="167"/>
+      <c r="D13" s="169" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="163" t="str">
+      <c r="C14" s="167"/>
+      <c r="D14" s="169" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="163" t="str">
+      <c r="C15" s="167"/>
+      <c r="D15" s="169" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="163" t="str">
+      <c r="C16" s="167"/>
+      <c r="D16" s="169" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 90° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="163">
+      <c r="C17" s="167"/>
+      <c r="D17" s="169">
         <f>Gap30deg!D17</f>
         <v>0.6</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162">
+      <c r="C18" s="167"/>
+      <c r="D18" s="168">
         <f>Gap30deg!D18</f>
         <v>45459</v>
       </c>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -29617,16 +29617,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="170"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="160"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -33552,13 +33552,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -33572,6 +33565,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="20" priority="3" stopIfTrue="1" operator="between">
@@ -33657,32 +33657,32 @@
       <c r="K2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="54.75" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="165"/>
-      <c r="H3" s="165"/>
-      <c r="I3" s="165"/>
-      <c r="J3" s="165"/>
-      <c r="K3" s="165"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="162"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="162"/>
+      <c r="H3" s="162"/>
+      <c r="I3" s="162"/>
+      <c r="J3" s="162"/>
+      <c r="K3" s="162"/>
     </row>
     <row r="4" spans="1:15" s="46" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="163" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="47" t="s">
         <v>13</v>
       </c>
@@ -33698,12 +33698,12 @@
     </row>
     <row r="5" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A5" s="45"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="159"/>
-      <c r="E5" s="159"/>
-      <c r="F5" s="159"/>
-      <c r="G5" s="160"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="165"/>
+      <c r="F5" s="165"/>
+      <c r="G5" s="166"/>
       <c r="H5" s="44"/>
       <c r="I5" s="43"/>
       <c r="J5" s="43"/>
@@ -33711,12 +33711,12 @@
     </row>
     <row r="6" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A6" s="45"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="160"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="165"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="166"/>
       <c r="H6" s="44"/>
       <c r="I6" s="43"/>
       <c r="J6" s="43"/>
@@ -33724,12 +33724,12 @@
     </row>
     <row r="7" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A7" s="45"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="160"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="166"/>
       <c r="H7" s="44"/>
       <c r="I7" s="43"/>
       <c r="J7" s="43"/>
@@ -33737,12 +33737,12 @@
     </row>
     <row r="8" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A8" s="45"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="160"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="166"/>
       <c r="H8" s="44"/>
       <c r="I8" s="43"/>
       <c r="J8" s="43"/>
@@ -33750,12 +33750,12 @@
     </row>
     <row r="9" spans="1:15" s="41" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A9" s="45"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="159"/>
-      <c r="F9" s="159"/>
-      <c r="G9" s="160"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="166"/>
       <c r="H9" s="44"/>
       <c r="I9" s="43"/>
       <c r="J9" s="43"/>
@@ -33803,117 +33803,117 @@
     </row>
     <row r="13" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A13" s="87"/>
-      <c r="B13" s="161" t="s">
+      <c r="B13" s="167" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="161"/>
-      <c r="D13" s="163" t="str">
+      <c r="C13" s="167"/>
+      <c r="D13" s="169" t="str">
         <f>Gap30deg!D13</f>
         <v>SP2200052</v>
       </c>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="163"/>
-      <c r="J13" s="163"/>
-      <c r="K13" s="163"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="169"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="169"/>
+      <c r="K13" s="169"/>
       <c r="L13" s="86"/>
     </row>
     <row r="14" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A14" s="87"/>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="167" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="163" t="str">
+      <c r="C14" s="167"/>
+      <c r="D14" s="169" t="str">
         <f>Gap30deg!D14</f>
         <v>Stichting GROW</v>
       </c>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="163"/>
-      <c r="J14" s="163"/>
-      <c r="K14" s="163"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
       <c r="L14" s="86"/>
     </row>
     <row r="15" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A15" s="87"/>
-      <c r="B15" s="161" t="s">
+      <c r="B15" s="167" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="161"/>
-      <c r="D15" s="163" t="str">
+      <c r="C15" s="167"/>
+      <c r="D15" s="169" t="str">
         <f>Gap30deg!D15</f>
         <v>Bolt and Beautiful</v>
       </c>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
       <c r="L15" s="86"/>
     </row>
     <row r="16" spans="1:15" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A16" s="87"/>
-      <c r="B16" s="161" t="s">
+      <c r="B16" s="167" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="161"/>
-      <c r="D16" s="163" t="str">
+      <c r="C16" s="167"/>
+      <c r="D16" s="169" t="str">
         <f>Title</f>
         <v>Flange Segment Analytical Model for 120° gap size and tilt 1 deg</v>
       </c>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
       <c r="L16" s="86"/>
       <c r="M16" s="88"/>
     </row>
     <row r="17" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A17" s="87"/>
-      <c r="B17" s="161" t="s">
+      <c r="B17" s="167" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="163">
+      <c r="C17" s="167"/>
+      <c r="D17" s="169">
         <f>Gap30deg!D17</f>
         <v>0.6</v>
       </c>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
       <c r="L17" s="86"/>
     </row>
     <row r="18" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A18" s="87"/>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="162">
+      <c r="C18" s="167"/>
+      <c r="D18" s="168">
         <f>Gap30deg!D18</f>
         <v>45459</v>
       </c>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="168"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
       <c r="L18" s="86"/>
     </row>
     <row r="19" spans="1:22" s="85" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
@@ -34101,16 +34101,16 @@
     </row>
     <row r="28" spans="1:22" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1">
       <c r="A28" s="21"/>
-      <c r="B28" s="168"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="169"/>
-      <c r="E28" s="169"/>
-      <c r="F28" s="169"/>
-      <c r="G28" s="169"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="170"/>
+      <c r="B28" s="158"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="160"/>
       <c r="L28" s="20"/>
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
@@ -38036,13 +38036,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:K18"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="A3:K3"/>
@@ -38056,6 +38049,13 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:K14"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <conditionalFormatting sqref="K64">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="between">
@@ -38092,8 +38092,8 @@
   <sheetPr codeName="Tabelle12"/>
   <dimension ref="B2:R135"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H106" sqref="H106"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A108" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -38125,19 +38125,19 @@
     </row>
     <row r="21" spans="2:18" ht="18">
       <c r="G21" s="135">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:18">
       <c r="G22" s="136">
         <f>MATCH(gap_angle,N48:Q48,0)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:18">
       <c r="G23" s="136" t="str">
         <f>"Gap"&amp;gap_angle&amp;"deg"</f>
-        <v>Gap120deg</v>
+        <v>Gap90deg</v>
       </c>
     </row>
     <row r="26" spans="2:18">
@@ -39159,15 +39159,15 @@
       </c>
       <c r="E48" s="110" cm="1">
         <f t="array" ref="E48">INDEX(N48:Q48,case_number)</f>
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F48" s="110" cm="1">
         <f t="array" aca="1" ref="F48" ca="1">INDIRECT(sheet_name&amp;"!gap.angle")</f>
-        <v>119.99999999999999</v>
+        <v>90</v>
       </c>
       <c r="G48" s="118">
         <f t="shared" ref="G48:G53" ca="1" si="1">(F48-E48)/E48</f>
-        <v>-1.1842378929335003E-16</v>
+        <v>0</v>
       </c>
       <c r="I48" s="141"/>
       <c r="J48" s="142"/>
@@ -39205,15 +39205,15 @@
       </c>
       <c r="E49" s="109" cm="1">
         <f t="array" ref="E49">INDEX(N49:Q49,case_number)</f>
-        <v>7.8539816339744828</v>
+        <v>5.8904862254808625</v>
       </c>
       <c r="F49" s="109" cm="1">
         <f t="array" aca="1" ref="F49" ca="1">INDIRECT(sheet_name&amp;"!gap.L")/1000</f>
-        <v>7.8539816339744819</v>
+        <v>5.8904862254808616</v>
       </c>
       <c r="G49" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1308638867425837E-16</v>
+        <v>-1.5078185156567782E-16</v>
       </c>
       <c r="H49" t="s">
         <v>316</v>
@@ -39349,15 +39349,15 @@
       </c>
       <c r="E52" s="109" cm="1">
         <f t="array" ref="E52">INDEX(N52:Q52,case_number)</f>
-        <v>2.1533230192475301</v>
+        <v>1.3643968401892383</v>
       </c>
       <c r="F52" s="109" cm="1">
         <f t="array" aca="1" ref="F52" ca="1">INDIRECT(sheet_name&amp;"!gap.k_mean")</f>
-        <v>2.1533230192475297</v>
+        <v>1.3643968401892375</v>
       </c>
       <c r="G52" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0623436701347657E-16</v>
+        <v>-6.5096780756025291E-16</v>
       </c>
       <c r="I52" s="144"/>
       <c r="J52" s="142"/>
@@ -39401,15 +39401,15 @@
       </c>
       <c r="E53" s="109" cm="1">
         <f t="array" ref="E53">INDEX(N53:Q53,case_number)</f>
-        <v>0.44426272750754409</v>
+        <v>0.4993626397773579</v>
       </c>
       <c r="F53" s="109" cm="1">
         <f t="array" aca="1" ref="F53" ca="1">INDIRECT(sheet_name&amp;"!gap.COV")</f>
-        <v>0.44426272750754392</v>
+        <v>0.4993626397773579</v>
       </c>
       <c r="G53" s="118">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.7485353459219818E-16</v>
+        <v>0</v>
       </c>
       <c r="I53" s="144"/>
       <c r="J53" s="142"/>
@@ -39589,7 +39589,7 @@
       <c r="D57" s="103"/>
       <c r="E57" s="109" cm="1">
         <f t="array" ref="E57">INDEX(N57:Q57,case_number)</f>
-        <v>0.42441366570439232</v>
+        <v>0.47184092472685457</v>
       </c>
       <c r="F57" s="109" t="s">
         <v>85</v>
@@ -39633,7 +39633,7 @@
       <c r="D58" s="103"/>
       <c r="E58" s="109" cm="1">
         <f t="array" ref="E58">INDEX(N58:Q58,case_number)</f>
-        <v>0.67694875947348121</v>
+        <v>0.19939552653846943</v>
       </c>
       <c r="F58" s="109" t="s">
         <v>85</v>
@@ -39677,7 +39677,7 @@
       <c r="D59" s="103"/>
       <c r="E59" s="109" cm="1">
         <f t="array" ref="E59">INDEX(N59:Q59,case_number)</f>
-        <v>1.3750667981906362</v>
+        <v>0.97552666362167262</v>
       </c>
       <c r="F59" s="113" t="s">
         <v>85</v>
@@ -39723,15 +39723,15 @@
       </c>
       <c r="E60" s="109" cm="1">
         <f t="array" ref="E60">INDEX(N60:Q60,case_number)</f>
-        <v>3.9552630780086151</v>
+        <v>2.6525058127308667</v>
       </c>
       <c r="F60" s="109" cm="1">
         <f t="array" aca="1" ref="F60" ca="1">INDIRECT(sheet_name&amp;"!gap.h")</f>
-        <v>3.9552630780086138</v>
+        <v>2.6525058127308663</v>
       </c>
       <c r="G60" s="118">
         <f t="shared" ref="G60:G61" ca="1" si="2">(F60-E60)/E60</f>
-        <v>-3.3683413802678182E-16</v>
+        <v>-1.6742252089274559E-16</v>
       </c>
       <c r="I60" s="144"/>
       <c r="J60" s="142"/>
@@ -39772,15 +39772,15 @@
       </c>
       <c r="E61" s="109" cm="1">
         <f t="array" ref="E61">INDEX(N61:Q61,case_number)</f>
-        <v>3.9552630780086151</v>
+        <v>2.6525058127308667</v>
       </c>
       <c r="F61" s="109" cm="1">
         <f t="array" aca="1" ref="F61" ca="1">INDIRECT(sheet_name&amp;"!gap.h")</f>
-        <v>3.9552630780086138</v>
+        <v>2.6525058127308663</v>
       </c>
       <c r="G61" s="118">
         <f t="shared" ca="1" si="2"/>
-        <v>-3.3683413802678182E-16</v>
+        <v>-1.6742252089274559E-16</v>
       </c>
       <c r="H61" t="s">
         <v>164</v>
@@ -40145,15 +40145,15 @@
       </c>
       <c r="E71" s="107" cm="1">
         <f t="array" ref="E71">INDEX(N71:Q71,case_number)</f>
-        <v>114.92158217798261</v>
+        <v>121.65181485180494</v>
       </c>
       <c r="F71" s="107" cm="1">
         <f t="array" aca="1" ref="F71" ca="1">INDIRECT(sheet_name&amp;"!Point3.Z")</f>
-        <v>114.92196043773332</v>
+        <v>121.65241674972603</v>
       </c>
       <c r="G71" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>3.2914596504442812E-6</v>
+        <v>4.947710166261584E-6</v>
       </c>
       <c r="K71" s="106"/>
       <c r="L71" s="103" t="s">
@@ -40185,15 +40185,15 @@
       </c>
       <c r="E72" s="107" cm="1">
         <f t="array" ref="E72">INDEX(N72:Q72,case_number)</f>
-        <v>2876.0235738200386</v>
+        <v>2876.0242398505584</v>
       </c>
       <c r="F72" s="107" cm="1">
         <f t="array" aca="1" ref="F72" ca="1">INDIRECT(sheet_name&amp;"!Point3.Fs")</f>
-        <v>2876.0235730429226</v>
+        <v>2876.0242390725593</v>
       </c>
       <c r="G72" s="118">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.7020499275959742E-10</v>
+        <v>-2.7051199274187E-10</v>
       </c>
       <c r="K72" s="106"/>
       <c r="L72" s="103" t="s">
@@ -40223,7 +40223,7 @@
       <c r="D73" s="103"/>
       <c r="E73" s="107" cm="1">
         <f t="array" ref="E73">INDEX(N73:Q73,case_number)</f>
-        <v>1019745420.5032697</v>
+        <v>1044943443.013836</v>
       </c>
       <c r="F73" s="110" t="s">
         <v>85</v>
@@ -40255,7 +40255,7 @@
       <c r="D74" s="103"/>
       <c r="E74" s="107" cm="1">
         <f t="array" ref="E74">INDEX(N74:Q74,case_number)</f>
-        <v>171223.66286274185</v>
+        <v>176061.24052023687</v>
       </c>
       <c r="F74" s="111" t="s">
         <v>85</v>
@@ -40287,7 +40287,7 @@
       <c r="D75" s="103"/>
       <c r="E75" s="107" cm="1">
         <f t="array" ref="E75">INDEX(N75:Q75,case_number)</f>
-        <v>1534071.5457005887</v>
+        <v>392122.98724318645</v>
       </c>
       <c r="F75" s="111" t="s">
         <v>85</v>
@@ -40319,15 +40319,15 @@
       <c r="D76" s="103"/>
       <c r="E76" s="146" cm="1">
         <f t="array" ref="E76">INDEX(N76:Q76,case_number)</f>
-        <v>1.6790824397940296E-4</v>
+        <v>1.6848877486846497E-4</v>
       </c>
       <c r="F76" s="146" cm="1">
         <f t="array" aca="1" ref="F76" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.2")*1000</f>
-        <v>1.6790827824516083E-4</v>
+        <v>1.6848882872260633E-4</v>
       </c>
       <c r="G76" s="118">
         <f t="shared" ref="G76:G78" ca="1" si="5">(F76-E76)/E76</f>
-        <v>2.0407430309712738E-7</v>
+        <v>3.1963044068231465E-7</v>
       </c>
       <c r="K76" s="106"/>
       <c r="L76" s="105" t="s">
@@ -40355,15 +40355,15 @@
       <c r="D77" s="103"/>
       <c r="E77" s="146" cm="1">
         <f t="array" ref="E77">INDEX(N77:Q77,case_number)</f>
-        <v>1.5043671830793674E-3</v>
+        <v>3.7525761787855381E-4</v>
       </c>
       <c r="F77" s="146" cm="1">
         <f t="array" aca="1" ref="F77" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.1")</f>
-        <v>1.5043005375400377E-3</v>
+        <v>3.7515287370911722E-4</v>
       </c>
       <c r="G77" s="118">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.4301378067293524E-5</v>
+        <v>-2.7912603088176696E-4</v>
       </c>
       <c r="K77" s="106"/>
       <c r="L77" s="105" t="s">
@@ -40391,15 +40391,15 @@
       <c r="D78" s="103"/>
       <c r="E78" s="108" cm="1">
         <f t="array" ref="E78">INDEX(N78:Q78,case_number)</f>
-        <v>2873.6331304137493</v>
+        <v>2873.4850960593094</v>
       </c>
       <c r="F78" s="107" cm="1">
         <f t="array" aca="1" ref="F78" ca="1">INDIRECT(sheet_name&amp;"!Fs_coeff.tens.0")/1000</f>
-        <v>2873.6331216760418</v>
+        <v>2873.4850823265979</v>
       </c>
       <c r="G78" s="118">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.0406482340550305E-9</v>
+        <v>-4.7791135375785108E-9</v>
       </c>
       <c r="K78" s="106"/>
       <c r="L78" s="112" t="s">
@@ -40432,15 +40432,15 @@
       </c>
       <c r="E79" s="107" cm="1">
         <f t="array" ref="E79">INDEX(N79:Q79,case_number)</f>
-        <v>681.5727326421669</v>
+        <v>711.5482385942081</v>
       </c>
       <c r="F79" s="107" cm="1">
         <f t="array" aca="1" ref="F79" ca="1">-INDIRECT(sheet_name&amp;"!DZ_gap")</f>
-        <v>681.57273306973468</v>
+        <v>711.5482401886353</v>
       </c>
       <c r="G79" s="118">
         <f ca="1">(F79-E79)/E79</f>
-        <v>6.273252484551553E-10</v>
+        <v>2.2407858204379207E-9</v>
       </c>
       <c r="H79" s="153"/>
       <c r="I79" s="139"/>
@@ -40660,15 +40660,15 @@
       </c>
       <c r="E84" s="111" cm="1">
         <f t="array" ref="E84">INDEX(N84:Q84,case_number)</f>
-        <v>1775.6019758133866</v>
+        <v>2764.1193483222332</v>
       </c>
       <c r="F84" s="111" cm="1">
         <f t="array" aca="1" ref="F84" ca="1">INDIRECT(sheet_name&amp;"!gap.stiffness")</f>
-        <v>1775.6019769272668</v>
+        <v>2764.1193545160336</v>
       </c>
       <c r="G84" s="118">
         <f ca="1">(F84-E84)/E84</f>
-        <v>6.2732539819210612E-10</v>
+        <v>2.2407861474068708E-9</v>
       </c>
       <c r="I84" s="138"/>
       <c r="K84" s="106">
@@ -40711,7 +40711,7 @@
       </c>
       <c r="E85" s="111" cm="1">
         <f t="array" ref="E85">INDEX(N85:Q85,case_number)</f>
-        <v>591.4518990117981</v>
+        <v>1050.2469446066798</v>
       </c>
       <c r="F85" s="111" t="s">
         <v>85</v>
@@ -40758,15 +40758,15 @@
       </c>
       <c r="E86" s="111" cm="1">
         <f t="array" ref="E86">INDEX(N86:Q86,case_number)</f>
-        <v>800.98702799963189</v>
+        <v>1237.2237731143939</v>
       </c>
       <c r="F86" s="111" cm="1">
         <f t="array" aca="1" ref="F86" ca="1">INDIRECT(sheet_name&amp;"!gap.k_shell")</f>
-        <v>800.98702799963201</v>
+        <v>1237.2237731143944</v>
       </c>
       <c r="G86" s="118">
         <f ca="1">(F86-E86)/E86</f>
-        <v>1.4193343181291605E-16</v>
+        <v>3.6755464999007749E-16</v>
       </c>
       <c r="H86" t="s">
         <v>152</v>
@@ -40806,15 +40806,15 @@
       </c>
       <c r="E87" s="111" cm="1">
         <f t="array" ref="E87">INDEX(N87:Q87,case_number)</f>
-        <v>800.98702799963189</v>
+        <v>1237.2237731143939</v>
       </c>
       <c r="F87" s="111" cm="1">
         <f t="array" aca="1" ref="F87" ca="1">INDIRECT(sheet_name&amp;"!gap.k_shell")</f>
-        <v>800.98702799963201</v>
+        <v>1237.2237731143944</v>
       </c>
       <c r="G87" s="118">
         <f ca="1">(F87-E87)/E87</f>
-        <v>1.4193343181291605E-16</v>
+        <v>3.6755464999007749E-16</v>
       </c>
       <c r="H87" t="s">
         <v>150</v>
@@ -40857,15 +40857,15 @@
       </c>
       <c r="E88" s="109" cm="1">
         <f t="array" ref="E88">INDEX(N88:Q88,case_number)</f>
-        <v>2.8707963267948964</v>
+        <v>2.4780972450961727</v>
       </c>
       <c r="F88" s="109" cm="1">
         <f t="array" aca="1" ref="F88" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fac")</f>
-        <v>2.8707963267948964</v>
+        <v>2.4780972450961722</v>
       </c>
       <c r="G88" s="118">
         <f ca="1">(F88-E88)/E88</f>
-        <v>0</v>
+        <v>-1.7920572355619077E-16</v>
       </c>
       <c r="I88" s="138"/>
       <c r="K88" s="106">
@@ -40908,15 +40908,15 @@
       </c>
       <c r="E89" s="107" cm="1">
         <f t="array" ref="E89">INDEX(N89:Q89,case_number)</f>
-        <v>6.104779188271074</v>
+        <v>19.194112486621197</v>
       </c>
       <c r="F89" s="107" cm="1">
         <f t="array" aca="1" ref="F89" ca="1">INDIRECT(sheet_name&amp;"!gap.k_fl")</f>
-        <v>6.1047796945801265</v>
+        <v>19.194115301984201</v>
       </c>
       <c r="G89" s="118">
         <f ca="1">(F89-E89)/E89</f>
-        <v>8.2936505456949831E-8</v>
+        <v>1.4667846747397061E-7</v>
       </c>
       <c r="I89" s="138"/>
       <c r="K89" s="106">
@@ -40959,7 +40959,7 @@
       </c>
       <c r="E90" s="110" cm="1">
         <f t="array" ref="E90">INDEX(N90:Q90,case_number)</f>
-        <v>579.568707746938</v>
+        <v>577.99584146472671</v>
       </c>
       <c r="F90" s="110" t="s">
         <v>85</v>
@@ -41009,7 +41009,7 @@
       </c>
       <c r="E91" s="110" cm="1">
         <f t="array" ref="E91">INDEX(N91:Q91,case_number)</f>
-        <v>298.62780020642253</v>
+        <v>305.62241840367358</v>
       </c>
       <c r="F91" s="110" t="s">
         <v>85</v>
@@ -41310,19 +41310,19 @@
       </c>
       <c r="E97" s="109" cm="1">
         <f t="array" ref="E97">INDEX(N97:Q97,case_number)</f>
-        <v>1.1112918625647985</v>
+        <v>1.1763732220609038</v>
       </c>
       <c r="F97" s="109" cm="1">
         <f t="array" aca="1" ref="F97" ca="1">INDIRECT(sheet_name&amp;"!stiffness_correction_factor")</f>
-        <v>1.111295520337124</v>
+        <v>1.1763790424146539</v>
       </c>
       <c r="G97" s="118">
         <f ca="1">(F97-E97)/E97</f>
-        <v>3.2914596504195279E-6</v>
+        <v>4.947710166232574E-6</v>
       </c>
       <c r="I97" s="155">
         <f ca="1">F97</f>
-        <v>1.111295520337124</v>
+        <v>1.1763790424146539</v>
       </c>
       <c r="K97" s="106">
         <f>K96+1</f>
@@ -41405,15 +41405,15 @@
       </c>
       <c r="E99" s="107" cm="1">
         <f t="array" ref="E99">INDEX(N99:Q99,case_number)</f>
-        <v>15954.463649842879</v>
+        <v>15671.989863448487</v>
       </c>
       <c r="F99" s="107" cm="1">
         <f t="array" aca="1" ref="F99" ca="1">INDIRECT(sheet_name&amp;"!k_seg")</f>
-        <v>15953.93930994537</v>
+        <v>15671.472736640659</v>
       </c>
       <c r="G99" s="118">
         <f ca="1">(F99-E99)/E99</f>
-        <v>-3.2864777470231291E-5</v>
+        <v>-3.2996882484876801E-5</v>
       </c>
       <c r="I99" s="138"/>
       <c r="K99" s="106">
@@ -41456,15 +41456,15 @@
       </c>
       <c r="E100" s="111" cm="1">
         <f t="array" ref="E100">INDEX(N100:Q100,case_number)</f>
-        <v>1386.6792909576479</v>
+        <v>1356.7037850056067</v>
       </c>
       <c r="F100" s="111" cm="1">
         <f t="array" aca="1" ref="F100" ca="1">ROUND(INDIRECT(sheet_name&amp;"!Z_2_td"),0)</f>
-        <v>1387</v>
+        <v>1357</v>
       </c>
       <c r="G100" s="118">
         <f ca="1">(F100-E100)/E100</f>
-        <v>2.3127845381651344E-4</v>
+        <v>2.1833431709047905E-4</v>
       </c>
       <c r="I100" s="138"/>
       <c r="K100" s="106">
@@ -41507,15 +41507,15 @@
       </c>
       <c r="E101" s="109" cm="1">
         <f t="array" ref="E101">INDEX(N101:Q101,case_number)</f>
-        <v>0.44778816655194476</v>
+        <v>0.44600495762306314</v>
       </c>
       <c r="F101" s="109" cm="1">
         <f t="array" aca="1" ref="F101" ca="1">INDIRECT(sheet_name&amp;"!u")</f>
-        <v>0.44780288335598617</v>
+        <v>0.44601967435768941</v>
       </c>
       <c r="G101" s="118">
         <f ca="1">(F101-E101)/E101</f>
-        <v>3.2865549250077248E-5</v>
+        <v>3.2996796055150889E-5</v>
       </c>
       <c r="H101" t="s">
         <v>303</v>
@@ -41561,7 +41561,7 @@
       </c>
       <c r="E102" s="110" cm="1">
         <f t="array" ref="E102">INDEX(N102:Q102,case_number)</f>
-        <v>0.44778816655194476</v>
+        <v>0.44600495762306314</v>
       </c>
       <c r="F102" s="104"/>
       <c r="G102" s="104"/>
@@ -41775,15 +41775,15 @@
       </c>
       <c r="E107" s="113" cm="1">
         <f t="array" ref="E107">INDEX(N107:Q107,case_number)</f>
-        <v>-3.9882216483422321E-2</v>
+        <v>-4.1154417240252379E-2</v>
       </c>
       <c r="F107" s="113" cm="1">
         <f t="array" aca="1" ref="F107" ca="1">INDIRECT(sheet_name&amp;"!true_force_initial_slope")</f>
-        <v>-3.9899082406412531E-2</v>
+        <v>-4.1171384142140229E-2</v>
       </c>
       <c r="G107" s="118">
         <f ca="1">(F107-E107)/E107</f>
-        <v>4.2289332131829937E-4</v>
+        <v>4.1227413788414222E-4</v>
       </c>
       <c r="I107" s="105"/>
       <c r="K107" s="106">
@@ -41826,15 +41826,15 @@
       </c>
       <c r="E108" s="108" cm="1">
         <f t="array" ref="E108">INDEX(N108:Q108,case_number)</f>
-        <v>2876.0199411082417</v>
+        <v>2876.0205772086201</v>
       </c>
       <c r="F108" s="108" cm="1">
         <f t="array" aca="1" ref="F108" ca="1">INDIRECT(sheet_name&amp;"!point4.Fs")</f>
-        <v>2876.019949541203</v>
+        <v>2876.0205856920711</v>
       </c>
       <c r="G108" s="118">
         <f ca="1">(F108-E108)/E108</f>
-        <v>2.9321637079305477E-9</v>
+        <v>2.9497184584507194E-9</v>
       </c>
       <c r="I108" s="103"/>
       <c r="K108" s="106">
@@ -42223,15 +42223,15 @@
       </c>
       <c r="E117" s="113" cm="1">
         <f t="array" ref="E117">INDEX(N117:Q117,case_number)</f>
-        <v>0.12487199849247331</v>
+        <v>0.10712821198176568</v>
       </c>
       <c r="F117" s="113" cm="1">
         <f t="array" aca="1" ref="F117" ca="1">INDIRECT(sheet_name&amp;"!true_moment_initial_slope")</f>
-        <v>0.12480382651924074</v>
+        <v>0.10706061617546644</v>
       </c>
       <c r="G117" s="118">
         <f ca="1">(F117-E117)/E117</f>
-        <v>-5.4593482971027182E-4</v>
+        <v>-6.3098043968795852E-4</v>
       </c>
       <c r="H117" t="s">
         <v>303</v>
@@ -42273,7 +42273,7 @@
       </c>
       <c r="E118" s="113" cm="1">
         <f t="array" ref="E118">INDEX(N118:Q118,case_number)</f>
-        <v>-8.2915375609214498E-2</v>
+        <v>-8.3417872223296538E-2</v>
       </c>
       <c r="F118" s="109" t="s">
         <v>85</v>
@@ -42320,15 +42320,15 @@
       </c>
       <c r="E119" s="108" cm="1">
         <f t="array" ref="E119">INDEX(N119:Q119,case_number)</f>
-        <v>-30.774251259935188</v>
+        <v>-29.066287061384749</v>
       </c>
       <c r="F119" s="108" cm="1">
         <f t="array" aca="1" ref="F119" ca="1">INDIRECT(sheet_name&amp;"!point4.Ms")</f>
-        <v>-30.771702118155986</v>
+        <v>-29.063829301803025</v>
       </c>
       <c r="G119" s="118">
         <f ca="1">(F119-E119)/E119</f>
-        <v>-8.283359220247087E-5</v>
+        <v>-8.4557053211954371E-5</v>
       </c>
       <c r="H119" t="s">
         <v>303</v>
@@ -42370,7 +42370,7 @@
       </c>
       <c r="E120" s="108" cm="1">
         <f t="array" ref="E120">INDEX(N120:Q120,case_number)</f>
-        <v>5.9016633069211566E-4</v>
+        <v>1.6994869152542752E-3</v>
       </c>
       <c r="F120" s="109" t="s">
         <v>85</v>
@@ -42491,7 +42491,7 @@
       </c>
       <c r="E123" s="108" cm="1">
         <f t="array" ref="E123">INDEX(N123:Q123,case_number)</f>
-        <v>-89.603826344462561</v>
+        <v>-87.722465386590997</v>
       </c>
       <c r="F123" s="109" t="s">
         <v>85</v>
@@ -42533,7 +42533,7 @@
       </c>
       <c r="E124" s="108" cm="1">
         <f t="array" ref="E124">INDEX(N124:Q124,case_number)</f>
-        <v>-4.0867521473915133E-2</v>
+        <v>-4.0009449196393994E-2</v>
       </c>
       <c r="F124" s="109" t="s">
         <v>85</v>
@@ -42575,7 +42575,7 @@
       </c>
       <c r="E125" s="108" cm="1">
         <f t="array" ref="E125">INDEX(N125:Q125,case_number)</f>
-        <v>-4.2433760460955762E-3</v>
+        <v>-4.3787352786899148E-3</v>
       </c>
       <c r="F125" s="109" t="s">
         <v>85</v>
@@ -42617,7 +42617,7 @@
       </c>
       <c r="E126" s="108" cm="1">
         <f t="array" ref="E126">INDEX(N126:Q126,case_number)</f>
-        <v>-89.531150040567098</v>
+        <v>-87.651315026020583</v>
       </c>
       <c r="F126" s="109" t="s">
         <v>85</v>
@@ -42659,7 +42659,7 @@
       </c>
       <c r="E127" s="108" cm="1">
         <f t="array" ref="E127">INDEX(N127:Q127,case_number)</f>
-        <v>-4.9159059034836111E-2</v>
+        <v>-4.8351236418723173E-2</v>
       </c>
       <c r="F127" s="109" t="s">
         <v>85</v>
@@ -42701,7 +42701,7 @@
       </c>
       <c r="E128" s="108" cm="1">
         <f t="array" ref="E128">INDEX(N128:Q128,case_number)</f>
-        <v>-30.711815260688951</v>
+        <v>-29.012722955393865</v>
       </c>
       <c r="F128" s="109" t="s">
         <v>85</v>
@@ -42737,7 +42737,7 @@
       </c>
       <c r="E129" s="108" cm="1">
         <f t="array" ref="E129">INDEX(N129:Q129,case_number)</f>
-        <v>2754.7719432289941</v>
+        <v>2726.2691969062412</v>
       </c>
       <c r="F129" s="109" t="s">
         <v>85</v>
@@ -42773,7 +42773,7 @@
       </c>
       <c r="E130" s="108" cm="1">
         <f t="array" ref="E130">INDEX(N130:Q130,case_number)</f>
-        <v>28.70026541193366</v>
+        <v>28.702339992970927</v>
       </c>
       <c r="F130" s="109" t="s">
         <v>85</v>
@@ -42806,7 +42806,7 @@
       </c>
       <c r="E131" s="108" cm="1">
         <f t="array" ref="E131">INDEX(N131:Q131,case_number)</f>
-        <v>5.2300795322711847E-4</v>
+        <v>5.2481621626934737E-4</v>
       </c>
       <c r="F131" s="109" t="s">
         <v>85</v>
@@ -42842,7 +42842,7 @@
       </c>
       <c r="E132" s="108" cm="1">
         <f t="array" ref="E132">INDEX(N132:Q132,case_number)</f>
-        <v>0.25378474215230173</v>
+        <v>0.23648666235304702</v>
       </c>
       <c r="F132" s="109" t="s">
         <v>85</v>
@@ -42878,7 +42878,7 @@
       </c>
       <c r="E133" s="108" cm="1">
         <f t="array" ref="E133">INDEX(N133:Q133,case_number)</f>
-        <v>-7.3724290631744225</v>
+        <v>-7.8335329547297761</v>
       </c>
       <c r="F133" s="109" t="s">
         <v>85</v>
@@ -43060,14 +43060,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101004E5A98ECA1EC044BB77E0D7F6ADEF7BC" ma:contentTypeVersion="18" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="5e88349ac6f5efd4674595e2a92e1fa9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2278e7f3-5df8-4100-b836-5320443b7544" xmlns:ns4="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bde21b231255bb48ab8a6ec7dd561648" ns3:_="" ns4:_="">
     <xsd:import namespace="2278e7f3-5df8-4100-b836-5320443b7544"/>
@@ -43320,6 +43312,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="2278e7f3-5df8-4100-b836-5320443b7544" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -43330,23 +43330,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
-    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A7863D2-B6F1-4C67-B9E9-1F3A9276C4FF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -43365,6 +43348,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D3A318F-BD98-4749-9B6A-DFC991AC8E75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3fb9cbd1-4a98-4945-a235-2d8a3d5ec2be"/>
+    <ds:schemaRef ds:uri="2278e7f3-5df8-4100-b836-5320443b7544"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52E10DE4-EB42-4EC5-8AEE-EE77FE7979AC}">
   <ds:schemaRefs>
